--- a/biology/Botanique/Dolcetto_d'Ovada/Dolcetto_d'Ovada.xlsx
+++ b/biology/Botanique/Dolcetto_d'Ovada/Dolcetto_d'Ovada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Ovada</t>
+          <t>Dolcetto_d'Ovada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il Dolcetto d'Ovada est un vin italien de la région Piémont doté d'une appellation DOC depuis le 26 juin 1974. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province d'Alexandrie dans les communes de Ovada, Belforte Monferrato, Bosio, Capriata d'Orba, Carpeneto, Casaleggio Boiro, Cassinelle, Castelletto d'Orba, Cremolino, Lerma, Molare, Montaldeo, Montaldo Bormida, Mornese, Morsasco, Parodi Ligure, Prasco, Rocca Grimalda, San Cristoforo, Silvano d'Orba, Tagliolo Monferrato et Trisobbio.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Ovada</t>
+          <t>Dolcetto_d'Ovada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis tendant au grenat avec le vieillissement
 odeur : délicat, caractéristique
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Ovada</t>
+          <t>Dolcetto_d'Ovada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Ovada</t>
+          <t>Dolcetto_d'Ovada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Ovada</t>
+          <t>Dolcetto_d'Ovada</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
